--- a/data/trans_bre/P26-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P26-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P26-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P26-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,54%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,78; 14,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,29; 12,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,73; 3,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 3,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,57; 73,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,16; 50,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,45; 16,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,85; 36,79</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,37%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,86; 13,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,75; 10,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 5,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,3; 4,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,52; 40,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,63; 30,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 22,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,69; 41,45</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,36%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 9,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,77; 6,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 7,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; 4,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,26; 39,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,9; 24,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,03; 43,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,78; 52,17</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,45</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,99%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,1; 11,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,33; 8,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 3,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,19; 2,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,41; 39,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,69; 26,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,18; 15,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,65; 27,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P26-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P26-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,54%</t>
+          <t>-3,37%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 3,05</t>
+          <t>-4,64; 3,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 36,79</t>
+          <t>-31,34; 38,87</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>-8,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>-37,81%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 4,65</t>
+          <t>-36,61; 3,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,69; 41,45</t>
+          <t>-75,39; 25,73</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>6,42%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 4,31</t>
+          <t>-3,59; 4,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,78; 52,17</t>
+          <t>-27,27; 49,09</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>-30,5%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 2,99</t>
+          <t>-26,39; 1,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,65; 27,22</t>
+          <t>-69,82; 16,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P26-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P26-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 14,59</t>
+          <t>6,96; 14,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,29; 12,24</t>
+          <t>4,48; 12,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 3,25</t>
+          <t>-5,53; 3,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 3,33</t>
+          <t>-4,52; 3,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,57; 73,9</t>
+          <t>28,54; 73,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,16; 50,97</t>
+          <t>16,05; 53,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 16,8</t>
+          <t>-22,01; 15,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 38,87</t>
+          <t>-31,33; 40,51</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,86; 13,0</t>
+          <t>5,85; 13,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,75; 10,6</t>
+          <t>3,74; 10,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,82</t>
+          <t>-0,06; 6,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,61; 3,06</t>
+          <t>-34,39; 3,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,52; 40,41</t>
+          <t>16,54; 41,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,63; 30,36</t>
+          <t>9,68; 30,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 22,0</t>
+          <t>-0,19; 24,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-75,39; 25,73</t>
+          <t>-75,0; 28,89</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 9,13</t>
+          <t>-2,53; 9,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 6,26</t>
+          <t>-7,11; 6,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 7,43</t>
+          <t>-3,3; 7,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 4,23</t>
+          <t>-3,4; 4,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 39,64</t>
+          <t>-8,65; 40,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 24,71</t>
+          <t>-21,37; 23,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 43,36</t>
+          <t>-15,33; 44,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,27; 49,09</t>
+          <t>-26,05; 51,24</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 11,01</t>
+          <t>6,26; 11,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 8,24</t>
+          <t>3,53; 8,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,77</t>
+          <t>-0,77; 3,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 1,87</t>
+          <t>-25,3; 2,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,41; 39,68</t>
+          <t>21,02; 40,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,69; 26,15</t>
+          <t>10,45; 25,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 15,56</t>
+          <t>-2,87; 15,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,82; 16,17</t>
+          <t>-65,68; 18,24</t>
         </is>
       </c>
     </row>
